--- a/AQUARELA-operacao.xlsx
+++ b/AQUARELA-operacao.xlsx
@@ -184,7 +184,7 @@
     <t>0%</t>
   </si>
   <si>
-    <t>0001-00_AQUARELA_COLEGIO_B2B</t>
+    <t>0100-10_AQUARELA</t>
   </si>
   <si>
     <t>SP1</t>
